--- a/data/pca/factorExposure/factorExposure_2015-05-04.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-05-04.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,15 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,27 +720,45 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.02079446178147552</v>
+        <v>0.01162019273436865</v>
       </c>
       <c r="C2">
-        <v>0.02119670863123264</v>
+        <v>-0.05078647363949459</v>
       </c>
       <c r="D2">
-        <v>-0.1031971615889205</v>
+        <v>-0.1268733563301946</v>
       </c>
       <c r="E2">
-        <v>-0.0159831229463192</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>-0.02256011033668363</v>
+      </c>
+      <c r="F2">
+        <v>-0.03306482550029426</v>
+      </c>
+      <c r="G2">
+        <v>-0.1179803951531389</v>
+      </c>
+      <c r="H2">
+        <v>-0.08651039666380819</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -745,27 +772,45 @@
       <c r="E3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.04252183663495011</v>
+        <v>0.01542193705137444</v>
       </c>
       <c r="C4">
-        <v>0.07065707828028078</v>
+        <v>-0.1060149413828365</v>
       </c>
       <c r="D4">
-        <v>-0.108223341951231</v>
+        <v>-0.129248719071695</v>
       </c>
       <c r="E4">
-        <v>-0.09457529927376829</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>-0.01200125802378738</v>
+      </c>
+      <c r="F4">
+        <v>-0.09300083315732131</v>
+      </c>
+      <c r="G4">
+        <v>-0.001762091492543996</v>
+      </c>
+      <c r="H4">
+        <v>-0.051889922705534</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,197 +824,305 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.02437073717259804</v>
+        <v>0.02822242322170479</v>
       </c>
       <c r="C6">
-        <v>0.01187437897821883</v>
+        <v>-0.03753727065383002</v>
       </c>
       <c r="D6">
-        <v>-0.1305189452897695</v>
+        <v>-0.1214986608265311</v>
       </c>
       <c r="E6">
-        <v>-0.05696033340000681</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>-0.05993518319012224</v>
+      </c>
+      <c r="F6">
+        <v>-0.04722862147931134</v>
+      </c>
+      <c r="G6">
+        <v>0.01019876727907371</v>
+      </c>
+      <c r="H6">
+        <v>-0.04541525812158027</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.001103289673987856</v>
+        <v>0.008305607469253863</v>
       </c>
       <c r="C7">
-        <v>0.02178805797180543</v>
+        <v>-0.03746580947875919</v>
       </c>
       <c r="D7">
-        <v>-0.1095732757711718</v>
+        <v>-0.0957420570230717</v>
       </c>
       <c r="E7">
-        <v>-0.01674077083180941</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>-0.05538170158772095</v>
+      </c>
+      <c r="F7">
+        <v>-0.01077080135263639</v>
+      </c>
+      <c r="G7">
+        <v>0.01895907634961082</v>
+      </c>
+      <c r="H7">
+        <v>-0.07753715519833547</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.002121772842838534</v>
+        <v>-0.008554488180481276</v>
       </c>
       <c r="C8">
-        <v>0.02538338202226484</v>
+        <v>-0.03539052059500993</v>
       </c>
       <c r="D8">
-        <v>-0.07578558396354634</v>
+        <v>-0.07383502076420866</v>
       </c>
       <c r="E8">
-        <v>-0.03308990931020617</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>-0.03754578668265279</v>
+      </c>
+      <c r="F8">
+        <v>-0.0509854006074557</v>
+      </c>
+      <c r="G8">
+        <v>-0.0588090009458453</v>
+      </c>
+      <c r="H8">
+        <v>-0.01532932377187566</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.0348042284956313</v>
+        <v>0.01175916831791286</v>
       </c>
       <c r="C9">
-        <v>0.06018293918102031</v>
+        <v>-0.08770821214445897</v>
       </c>
       <c r="D9">
-        <v>-0.1154621510000368</v>
+        <v>-0.1122494542882644</v>
       </c>
       <c r="E9">
-        <v>-0.07942699862075049</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>-0.01353414752289193</v>
+      </c>
+      <c r="F9">
+        <v>-0.06252965743874879</v>
+      </c>
+      <c r="G9">
+        <v>0.02058238929818718</v>
+      </c>
+      <c r="H9">
+        <v>-0.06107176102918238</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.1766938722732446</v>
+        <v>0.2428333373497601</v>
       </c>
       <c r="C10">
-        <v>-0.1683326169560109</v>
+        <v>0.08652730035812846</v>
       </c>
       <c r="D10">
-        <v>0.005180849538758569</v>
+        <v>0.0033073083166745</v>
       </c>
       <c r="E10">
-        <v>-0.04685409227517122</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>0.01062555996908466</v>
+      </c>
+      <c r="F10">
+        <v>-0.04256634181574817</v>
+      </c>
+      <c r="G10">
+        <v>0.001103891271898417</v>
+      </c>
+      <c r="H10">
+        <v>0.03363265747606614</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.01905412444775552</v>
+        <v>0.009547671837531099</v>
       </c>
       <c r="C11">
-        <v>0.04156516022773187</v>
+        <v>-0.05857502249117064</v>
       </c>
       <c r="D11">
-        <v>-0.04538108964274739</v>
+        <v>-0.04054301937955317</v>
       </c>
       <c r="E11">
-        <v>0.01397952787713649</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>-0.02053792950532029</v>
+      </c>
+      <c r="F11">
+        <v>0.01300088643189613</v>
+      </c>
+      <c r="G11">
+        <v>0.01662383204514077</v>
+      </c>
+      <c r="H11">
+        <v>-0.05178484748031295</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.01843394547482726</v>
+        <v>0.00943547812861514</v>
       </c>
       <c r="C12">
-        <v>0.0411243262797425</v>
+        <v>-0.05051745495898219</v>
       </c>
       <c r="D12">
-        <v>-0.05719839534989378</v>
+        <v>-0.04471666622876962</v>
       </c>
       <c r="E12">
-        <v>0.003048920964076132</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>-0.01603613214621905</v>
+      </c>
+      <c r="F12">
+        <v>0.01648719459698812</v>
+      </c>
+      <c r="G12">
+        <v>0.03450977827620651</v>
+      </c>
+      <c r="H12">
+        <v>-0.06593335424014947</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.003275679636934955</v>
+        <v>-0.004605800504315102</v>
       </c>
       <c r="C13">
-        <v>0.02303162573898678</v>
+        <v>-0.04951665147989087</v>
       </c>
       <c r="D13">
-        <v>-0.1329907155851587</v>
+        <v>-0.1476826899994176</v>
       </c>
       <c r="E13">
-        <v>-0.05087898623791535</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>-0.0416621306548641</v>
+      </c>
+      <c r="F13">
+        <v>-0.03652839454033997</v>
+      </c>
+      <c r="G13">
+        <v>-0.01226188737432556</v>
+      </c>
+      <c r="H13">
+        <v>-0.07758407028151748</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.004409605138412222</v>
+        <v>0.001955303359069734</v>
       </c>
       <c r="C14">
-        <v>0.0152665313280842</v>
+        <v>-0.03210317671341965</v>
       </c>
       <c r="D14">
-        <v>-0.08968542312950668</v>
+        <v>-0.09829649945502618</v>
       </c>
       <c r="E14">
-        <v>-0.02253372792985043</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>-0.05136517361804773</v>
+      </c>
+      <c r="F14">
+        <v>-0.037741494713325</v>
+      </c>
+      <c r="G14">
+        <v>0.001162248889366327</v>
+      </c>
+      <c r="H14">
+        <v>-0.139648491032869</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>0.002957690466919641</v>
+        <v>-0.003638094529052903</v>
       </c>
       <c r="C15">
-        <v>0.01048080886122403</v>
+        <v>-0.0282559638288414</v>
       </c>
       <c r="D15">
-        <v>-0.03332493150751638</v>
+        <v>-0.06174600706582997</v>
       </c>
       <c r="E15">
-        <v>-0.0004478478570963577</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>-0.01279210647842277</v>
+      </c>
+      <c r="F15">
+        <v>-0.008127549586712393</v>
+      </c>
+      <c r="G15">
+        <v>-0.01204666890353149</v>
+      </c>
+      <c r="H15">
+        <v>-0.04546469132154145</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.01763431477414015</v>
+        <v>0.008531254441009984</v>
       </c>
       <c r="C16">
-        <v>0.0371795422533992</v>
+        <v>-0.05084918525662241</v>
       </c>
       <c r="D16">
-        <v>-0.05170692430885659</v>
+        <v>-0.04286588048144285</v>
       </c>
       <c r="E16">
-        <v>0.003676556287042608</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>-0.02317896593301243</v>
+      </c>
+      <c r="F16">
+        <v>0.008237239258920611</v>
+      </c>
+      <c r="G16">
+        <v>0.02648161296630768</v>
+      </c>
+      <c r="H16">
+        <v>-0.0469450505529993</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1136,19 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,146 +1162,227 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.001294416918386537</v>
+        <v>-0.001526133026925882</v>
       </c>
       <c r="C19">
-        <v>0.0180152431347818</v>
+        <v>-0.01590951240760474</v>
       </c>
       <c r="D19">
-        <v>-0.08319619692656313</v>
+        <v>-0.05778936043610648</v>
       </c>
       <c r="E19">
-        <v>-0.04355422590784449</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>0.01152368328381936</v>
+      </c>
+      <c r="F19">
+        <v>-0.01515893824975138</v>
+      </c>
+      <c r="G19">
+        <v>-0.01096871888543731</v>
+      </c>
+      <c r="H19">
+        <v>-0.05248003014878157</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.002576263437339124</v>
+        <v>0.004074990723478159</v>
       </c>
       <c r="C20">
-        <v>0.02439108522294248</v>
+        <v>-0.0420874045674255</v>
       </c>
       <c r="D20">
-        <v>-0.07609377250032255</v>
+        <v>-0.08681609810474229</v>
       </c>
       <c r="E20">
-        <v>-0.03893966204951843</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>-0.02439338190442532</v>
+      </c>
+      <c r="F20">
+        <v>-0.02754957387087467</v>
+      </c>
+      <c r="G20">
+        <v>0.01723137518569171</v>
+      </c>
+      <c r="H20">
+        <v>-0.05717953471898878</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.004498114206902223</v>
+        <v>0.002487475542725385</v>
       </c>
       <c r="C21">
-        <v>0.0257525825002594</v>
+        <v>-0.04515322254402063</v>
       </c>
       <c r="D21">
-        <v>-0.1415682575253133</v>
+        <v>-0.1284124965762678</v>
       </c>
       <c r="E21">
-        <v>-0.09438396260671278</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>-0.03261168983881396</v>
+      </c>
+      <c r="F21">
+        <v>-0.1011257878468657</v>
+      </c>
+      <c r="G21">
+        <v>-0.009761976219847392</v>
+      </c>
+      <c r="H21">
+        <v>-0.1997628564742007</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>-0.0002254426369903638</v>
+        <v>-0.01545546241066922</v>
       </c>
       <c r="C22">
-        <v>0.06524369505916358</v>
+        <v>-0.08788355133061085</v>
       </c>
       <c r="D22">
-        <v>-0.2674960744393101</v>
+        <v>-0.2653216916970118</v>
       </c>
       <c r="E22">
-        <v>-0.02477801264170322</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>-0.06352223513718411</v>
+      </c>
+      <c r="F22">
+        <v>-0.01031103657416796</v>
+      </c>
+      <c r="G22">
+        <v>-0.4050650385038138</v>
+      </c>
+      <c r="H22">
+        <v>0.379605265285203</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>-0.0005233475789098482</v>
+        <v>-0.01227944553587289</v>
       </c>
       <c r="C23">
-        <v>0.06572055288904574</v>
+        <v>-0.08968007450826534</v>
       </c>
       <c r="D23">
-        <v>-0.2669906794522671</v>
+        <v>-0.2680125584841576</v>
       </c>
       <c r="E23">
-        <v>-0.0250120140944646</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>-0.05869215454196149</v>
+      </c>
+      <c r="F23">
+        <v>-0.01355949417513607</v>
+      </c>
+      <c r="G23">
+        <v>-0.3925200433757823</v>
+      </c>
+      <c r="H23">
+        <v>0.3645004907339462</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.02318632157748275</v>
+        <v>0.009199043795193191</v>
       </c>
       <c r="C24">
-        <v>0.05712707551037063</v>
+        <v>-0.06721039007959473</v>
       </c>
       <c r="D24">
-        <v>-0.06026117037241857</v>
+        <v>-0.04597467774407848</v>
       </c>
       <c r="E24">
-        <v>0.0008948546161575831</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>-0.02952834215014177</v>
+      </c>
+      <c r="F24">
+        <v>0.004221689644194456</v>
+      </c>
+      <c r="G24">
+        <v>0.01557344015192608</v>
+      </c>
+      <c r="H24">
+        <v>-0.07263473438361864</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.02388470385543791</v>
+        <v>0.01352461980129009</v>
       </c>
       <c r="C25">
-        <v>0.04833591002752791</v>
+        <v>-0.06159916833821211</v>
       </c>
       <c r="D25">
-        <v>-0.05634609600800015</v>
+        <v>-0.04925450658396196</v>
       </c>
       <c r="E25">
-        <v>-0.005697326036959247</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>-0.01498240680133362</v>
+      </c>
+      <c r="F25">
+        <v>0.004780784225309983</v>
+      </c>
+      <c r="G25">
+        <v>0.01765062888578802</v>
+      </c>
+      <c r="H25">
+        <v>-0.03867466774497973</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.009131332796567006</v>
+        <v>0.01629067701482117</v>
       </c>
       <c r="C26">
-        <v>0.01406239843516402</v>
+        <v>-0.02929868000249872</v>
       </c>
       <c r="D26">
-        <v>-0.07850284500058213</v>
+        <v>-0.06673083294368948</v>
       </c>
       <c r="E26">
-        <v>-0.02939186567319257</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>-0.04108214776483037</v>
+      </c>
+      <c r="F26">
+        <v>-0.04656822021313382</v>
+      </c>
+      <c r="G26">
+        <v>0.01096701929978214</v>
+      </c>
+      <c r="H26">
+        <v>-0.1029334553372952</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,163 +1396,253 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.2627108246804037</v>
+        <v>0.3218755489203072</v>
       </c>
       <c r="C28">
-        <v>-0.1927834815661623</v>
+        <v>0.08462475175981091</v>
       </c>
       <c r="D28">
-        <v>-0.01211989755842293</v>
+        <v>0.01633345315527176</v>
       </c>
       <c r="E28">
-        <v>-0.05528317070874336</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>0.05019428620489189</v>
+      </c>
+      <c r="F28">
+        <v>-0.04646837153676724</v>
+      </c>
+      <c r="G28">
+        <v>-0.05338962080947472</v>
+      </c>
+      <c r="H28">
+        <v>0.001117776238914006</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.0002302721497990713</v>
+        <v>0.001047637728439932</v>
       </c>
       <c r="C29">
-        <v>0.01940484605658883</v>
+        <v>-0.0384470788208999</v>
       </c>
       <c r="D29">
-        <v>-0.09086521851980729</v>
+        <v>-0.1023030991963907</v>
       </c>
       <c r="E29">
-        <v>-0.03169112230170952</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>-0.05809041894874145</v>
+      </c>
+      <c r="F29">
+        <v>-0.04231704390922529</v>
+      </c>
+      <c r="G29">
+        <v>0.01458136593242565</v>
+      </c>
+      <c r="H29">
+        <v>-0.1459180802051701</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.02475208426322001</v>
+        <v>0.01332373233146621</v>
       </c>
       <c r="C30">
-        <v>0.06118579542786252</v>
+        <v>-0.09071571243139534</v>
       </c>
       <c r="D30">
-        <v>-0.1520667181932047</v>
+        <v>-0.1393962868259134</v>
       </c>
       <c r="E30">
-        <v>-0.03687826887776545</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>-0.05444478437275729</v>
+      </c>
+      <c r="F30">
+        <v>-0.02649864837097178</v>
+      </c>
+      <c r="G30">
+        <v>-0.02005991457871122</v>
+      </c>
+      <c r="H30">
+        <v>-0.0494641933037499</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.03464279698827635</v>
+        <v>0.006292922341552847</v>
       </c>
       <c r="C31">
-        <v>0.0843724463080196</v>
+        <v>-0.09419124805119528</v>
       </c>
       <c r="D31">
-        <v>-0.06294538582099</v>
+        <v>-0.03921188864652881</v>
       </c>
       <c r="E31">
-        <v>-0.01891161338478223</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>-0.02092477215579022</v>
+      </c>
+      <c r="F31">
+        <v>-0.01501242503909336</v>
+      </c>
+      <c r="G31">
+        <v>0.00702660969311599</v>
+      </c>
+      <c r="H31">
+        <v>-0.04901397078766106</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.01498983742469031</v>
+        <v>0.00931712929175765</v>
       </c>
       <c r="C32">
-        <v>0.03348839880631225</v>
+        <v>-0.04798173032654264</v>
       </c>
       <c r="D32">
-        <v>-0.06527791294084823</v>
+        <v>-0.09235669349573018</v>
       </c>
       <c r="E32">
-        <v>-0.06138762850793025</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>0.002306859602001426</v>
+      </c>
+      <c r="F32">
+        <v>-0.05137453016413509</v>
+      </c>
+      <c r="G32">
+        <v>-0.01153979037673558</v>
+      </c>
+      <c r="H32">
+        <v>-0.04598583385901184</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.007135784305614049</v>
+        <v>0.003892798814939717</v>
       </c>
       <c r="C33">
-        <v>0.04020532395436116</v>
+        <v>-0.06063737761889382</v>
       </c>
       <c r="D33">
-        <v>-0.1236478075854237</v>
+        <v>-0.1190946624909923</v>
       </c>
       <c r="E33">
-        <v>-0.04799042403103624</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>-0.03018087448525929</v>
+      </c>
+      <c r="F33">
+        <v>-0.02646172700336484</v>
+      </c>
+      <c r="G33">
+        <v>0.009050664156052629</v>
+      </c>
+      <c r="H33">
+        <v>-0.06329879313499071</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.02061091431456474</v>
+        <v>0.006892457060862047</v>
       </c>
       <c r="C34">
-        <v>0.05886895611596688</v>
+        <v>-0.06213737954055176</v>
       </c>
       <c r="D34">
-        <v>-0.05418806113840122</v>
+        <v>-0.02641476579790163</v>
       </c>
       <c r="E34">
-        <v>0.04354320173891498</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>-0.02932418724870107</v>
+      </c>
+      <c r="F34">
+        <v>0.03974060662412417</v>
+      </c>
+      <c r="G34">
+        <v>0.01760865098174158</v>
+      </c>
+      <c r="H34">
+        <v>-0.05245541715051517</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.002334574138758763</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>-0.01188342716895215</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>-0.03381930350216827</v>
       </c>
       <c r="E35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>-0.004184461649768717</v>
+      </c>
+      <c r="F35">
+        <v>-0.01902301067813514</v>
+      </c>
+      <c r="G35">
+        <v>0.008868981312246109</v>
+      </c>
+      <c r="H35">
+        <v>-0.05670953320460147</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.006684848801544395</v>
+        <v>0.01132119448620293</v>
       </c>
       <c r="C36">
-        <v>0.00580820475073492</v>
+        <v>-0.02244731312852866</v>
       </c>
       <c r="D36">
-        <v>-0.07809461875257018</v>
+        <v>-0.07466728700562605</v>
       </c>
       <c r="E36">
-        <v>-0.05264290598718505</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>-0.02862032263847178</v>
+      </c>
+      <c r="F36">
+        <v>-0.05104017314388287</v>
+      </c>
+      <c r="G36">
+        <v>0.005083316641302316</v>
+      </c>
+      <c r="H36">
+        <v>-0.06781411881923698</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,78 +1656,123 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.006098723021593006</v>
+        <v>0.01142804582463505</v>
       </c>
       <c r="C38">
-        <v>0.006682739199947703</v>
+        <v>-0.02582343725615401</v>
       </c>
       <c r="D38">
-        <v>-0.08322367107957218</v>
+        <v>-0.08607151808253272</v>
       </c>
       <c r="E38">
-        <v>-0.01238102726717638</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>-0.006690236313804585</v>
+      </c>
+      <c r="F38">
+        <v>-0.002986043438944008</v>
+      </c>
+      <c r="G38">
+        <v>-0.01669611580127569</v>
+      </c>
+      <c r="H38">
+        <v>-0.0727558532225734</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.01666194053483722</v>
+        <v>0.003299859760819747</v>
       </c>
       <c r="C39">
-        <v>0.05860667719823788</v>
+        <v>-0.07873537008610737</v>
       </c>
       <c r="D39">
-        <v>-0.109285407285507</v>
+        <v>-0.08914217245987532</v>
       </c>
       <c r="E39">
-        <v>0.001887884032014967</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>-0.0522642899328686</v>
+      </c>
+      <c r="F39">
+        <v>0.00537710959282181</v>
+      </c>
+      <c r="G39">
+        <v>0.02289999366442512</v>
+      </c>
+      <c r="H39">
+        <v>-0.1031020665003864</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.01475607752757511</v>
+        <v>0.0119271880733468</v>
       </c>
       <c r="C40">
-        <v>0.02242243852233773</v>
+        <v>-0.03805687064122966</v>
       </c>
       <c r="D40">
-        <v>-0.1114883640191348</v>
+        <v>-0.09708108534503693</v>
       </c>
       <c r="E40">
-        <v>-0.002982769319455846</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>-0.04046344746199908</v>
+      </c>
+      <c r="F40">
+        <v>0.0082316420872727</v>
+      </c>
+      <c r="G40">
+        <v>-0.06058681795809973</v>
+      </c>
+      <c r="H40">
+        <v>-0.1113450297935965</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.009946395762154612</v>
+        <v>0.01493817531716645</v>
       </c>
       <c r="C41">
-        <v>0.00374770376211434</v>
+        <v>-0.01977502608833765</v>
       </c>
       <c r="D41">
-        <v>-0.03355011626062419</v>
+        <v>-0.04435206061077986</v>
       </c>
       <c r="E41">
-        <v>-0.0294182242428533</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>0.004553932028819013</v>
+      </c>
+      <c r="F41">
+        <v>-0.02473695255236751</v>
+      </c>
+      <c r="G41">
+        <v>-0.0002205385389379202</v>
+      </c>
+      <c r="H41">
+        <v>-0.0466744013601319</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1408,44 +1786,71 @@
       <c r="E42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.0009263679798669528</v>
+        <v>0.007899539942854517</v>
       </c>
       <c r="C43">
-        <v>0.003247851664887448</v>
+        <v>-0.01583484538189382</v>
       </c>
       <c r="D43">
-        <v>-0.04947609565453023</v>
+        <v>-0.05197184725945618</v>
       </c>
       <c r="E43">
-        <v>-0.02335269119044153</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>-0.01198604258612357</v>
+      </c>
+      <c r="F43">
+        <v>-0.02239434608540084</v>
+      </c>
+      <c r="G43">
+        <v>-0.001020204496514885</v>
+      </c>
+      <c r="H43">
+        <v>-0.0578508956917879</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.01677520123710435</v>
+        <v>0.01104569000605047</v>
       </c>
       <c r="C44">
-        <v>0.02434985139865953</v>
+        <v>-0.04907424391071243</v>
       </c>
       <c r="D44">
-        <v>-0.08369041570089225</v>
+        <v>-0.1004958899944928</v>
       </c>
       <c r="E44">
-        <v>-0.05186172567393897</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>-0.03624722735106368</v>
+      </c>
+      <c r="F44">
+        <v>-0.03706663358645883</v>
+      </c>
+      <c r="G44">
+        <v>-0.02844445176325889</v>
+      </c>
+      <c r="H44">
+        <v>-0.0537083328472566</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1864,97 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.00672695580096396</v>
+        <v>-0.001035234684548354</v>
       </c>
       <c r="C46">
-        <v>0.02879075118311941</v>
+        <v>-0.0425525069688032</v>
       </c>
       <c r="D46">
-        <v>-0.08024193228627151</v>
+        <v>-0.07071884659845826</v>
       </c>
       <c r="E46">
-        <v>-0.02409492867600798</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>-0.04329334284498181</v>
+      </c>
+      <c r="F46">
+        <v>-0.03435287399996016</v>
+      </c>
+      <c r="G46">
+        <v>-0.002132896023430076</v>
+      </c>
+      <c r="H46">
+        <v>-0.1344983286884071</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.07777724539720064</v>
+        <v>0.02941772571155291</v>
       </c>
       <c r="C47">
-        <v>0.1072711675053964</v>
+        <v>-0.1280468375731377</v>
       </c>
       <c r="D47">
-        <v>-0.05516058013084797</v>
+        <v>-0.02349310178023837</v>
       </c>
       <c r="E47">
-        <v>-0.02993392027607382</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.009533970223538458</v>
+      </c>
+      <c r="F47">
+        <v>0.003078357941357456</v>
+      </c>
+      <c r="G47">
+        <v>0.04715151493162634</v>
+      </c>
+      <c r="H47">
+        <v>-0.05727810486253098</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.009969456409645866</v>
+        <v>0.0138370904839551</v>
       </c>
       <c r="C48">
-        <v>0.01608080691132916</v>
+        <v>-0.03369330409405419</v>
       </c>
       <c r="D48">
-        <v>-0.07482018686158207</v>
+        <v>-0.07665556003654926</v>
       </c>
       <c r="E48">
-        <v>-0.05876426844880307</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>-0.02076831317368011</v>
+      </c>
+      <c r="F48">
+        <v>-0.0594869641748712</v>
+      </c>
+      <c r="G48">
+        <v>0.002772076661201803</v>
+      </c>
+      <c r="H48">
+        <v>-0.1098502844619548</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +1968,71 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.03155881245277315</v>
+        <v>0.01026331343855754</v>
       </c>
       <c r="C50">
-        <v>0.05781087710432122</v>
+        <v>-0.07555207735435084</v>
       </c>
       <c r="D50">
-        <v>-0.05819042151528691</v>
+        <v>-0.04862846711999285</v>
       </c>
       <c r="E50">
-        <v>-0.01178995616176002</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>-0.01547314511783671</v>
+      </c>
+      <c r="F50">
+        <v>-0.008459802512433959</v>
+      </c>
+      <c r="G50">
+        <v>-0.002019053261973337</v>
+      </c>
+      <c r="H50">
+        <v>-0.03770523574990522</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.002305252158251797</v>
+        <v>-0.001522665230378772</v>
       </c>
       <c r="C51">
-        <v>0.005146318537805363</v>
+        <v>-0.01731340894802021</v>
       </c>
       <c r="D51">
-        <v>-0.05377671095536288</v>
+        <v>-0.05522409534154414</v>
       </c>
       <c r="E51">
-        <v>-0.01391961303526542</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>-0.03734336789138583</v>
+      </c>
+      <c r="F51">
+        <v>-0.04070134238385638</v>
+      </c>
+      <c r="G51">
+        <v>-0.02102506526708598</v>
+      </c>
+      <c r="H51">
+        <v>-0.05259971513782219</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,78 +2046,123 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.1049528309599192</v>
+        <v>0.04969380353519422</v>
       </c>
       <c r="C53">
-        <v>0.1263927359872644</v>
+        <v>-0.1574857503241573</v>
       </c>
       <c r="D53">
-        <v>-0.000675239196598961</v>
+        <v>0.02320065123627035</v>
       </c>
       <c r="E53">
-        <v>-0.05645441339618595</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>0.0289514417714927</v>
+      </c>
+      <c r="F53">
+        <v>-0.04953776285792292</v>
+      </c>
+      <c r="G53">
+        <v>0.00213415126113066</v>
+      </c>
+      <c r="H53">
+        <v>-0.01149735980891588</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.009790809942401441</v>
+        <v>0.009322223943235822</v>
       </c>
       <c r="C54">
-        <v>0.02002272093113665</v>
+        <v>-0.03828028261223259</v>
       </c>
       <c r="D54">
-        <v>-0.08656731227943368</v>
+        <v>-0.07684785258560586</v>
       </c>
       <c r="E54">
-        <v>-0.01202681334501887</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>-0.01801475543784238</v>
+      </c>
+      <c r="F54">
+        <v>-0.003426822756128655</v>
+      </c>
+      <c r="G54">
+        <v>-0.008143329894207045</v>
+      </c>
+      <c r="H54">
+        <v>-0.08447385806472699</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.0922789432699309</v>
+        <v>0.0384804310015768</v>
       </c>
       <c r="C55">
-        <v>0.1074701653833172</v>
+        <v>-0.1316584120542469</v>
       </c>
       <c r="D55">
-        <v>-0.005340819798363483</v>
+        <v>0.03275115121722799</v>
       </c>
       <c r="E55">
-        <v>-0.007609690059585112</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>-0.006129175632411217</v>
+      </c>
+      <c r="F55">
+        <v>-0.01159358228800581</v>
+      </c>
+      <c r="G55">
+        <v>-0.001248842862330783</v>
+      </c>
+      <c r="H55">
+        <v>-0.01590681761278871</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1318813096114508</v>
+        <v>0.05362391752697371</v>
       </c>
       <c r="C56">
-        <v>0.1466753027310571</v>
+        <v>-0.1923013951076786</v>
       </c>
       <c r="D56">
-        <v>-0.003710343469701558</v>
+        <v>0.03142692462967094</v>
       </c>
       <c r="E56">
-        <v>-0.004878492307910172</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>0.03021421186797929</v>
+      </c>
+      <c r="F56">
+        <v>-0.01524818532533625</v>
+      </c>
+      <c r="G56">
+        <v>-0.04777687609247331</v>
+      </c>
+      <c r="H56">
+        <v>-0.01651463300724456</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1663,78 +2176,123 @@
       <c r="E57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.009060275089130706</v>
+        <v>0.003290476371126688</v>
       </c>
       <c r="C58">
-        <v>0.008873829565107294</v>
+        <v>-0.05620043286057946</v>
       </c>
       <c r="D58">
-        <v>-0.2052476422571576</v>
+        <v>-0.2857718639950336</v>
       </c>
       <c r="E58">
-        <v>-0.1058748032064075</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>-0.02144546478336248</v>
+      </c>
+      <c r="F58">
+        <v>-0.1138061901655833</v>
+      </c>
+      <c r="G58">
+        <v>-0.1522801588583514</v>
+      </c>
+      <c r="H58">
+        <v>0.09122631400059589</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.1844273649245101</v>
+        <v>0.2556665773003128</v>
       </c>
       <c r="C59">
-        <v>-0.1445644138239647</v>
+        <v>0.05661159303157676</v>
       </c>
       <c r="D59">
-        <v>-0.03801112732875148</v>
+        <v>-0.05605362118664452</v>
       </c>
       <c r="E59">
-        <v>-0.03724433141416553</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>0.02138539395921695</v>
+      </c>
+      <c r="F59">
+        <v>-0.02387534495916767</v>
+      </c>
+      <c r="G59">
+        <v>-0.008455188307733884</v>
+      </c>
+      <c r="H59">
+        <v>-0.002773706519642498</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.1833016827315713</v>
+        <v>0.1457437860903835</v>
       </c>
       <c r="C60">
-        <v>0.105804515103382</v>
+        <v>-0.1766294836517655</v>
       </c>
       <c r="D60">
-        <v>-0.2408832752373458</v>
+        <v>-0.0952501148015633</v>
       </c>
       <c r="E60">
-        <v>0.1009173626238225</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>-0.162344462124859</v>
+      </c>
+      <c r="F60">
+        <v>0.2224970481310322</v>
+      </c>
+      <c r="G60">
+        <v>0.2194869282089521</v>
+      </c>
+      <c r="H60">
+        <v>0.2394671631147306</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.0247880647508087</v>
+        <v>0.0104616060552711</v>
       </c>
       <c r="C61">
-        <v>0.05295991713466434</v>
+        <v>-0.07456021049317398</v>
       </c>
       <c r="D61">
-        <v>-0.08860945898779674</v>
+        <v>-0.072090412738691</v>
       </c>
       <c r="E61">
-        <v>1.850542316980506e-05</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>-0.03876584678504119</v>
+      </c>
+      <c r="F61">
+        <v>0.01381531105687321</v>
+      </c>
+      <c r="G61">
+        <v>0.03783519032096165</v>
+      </c>
+      <c r="H61">
+        <v>-0.08717962245572086</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2306,201 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.006802607586850545</v>
+        <v>0.008491454160819319</v>
       </c>
       <c r="C63">
-        <v>0.02315813723120359</v>
+        <v>-0.03725744932065365</v>
       </c>
       <c r="D63">
-        <v>-0.09449710621626636</v>
+        <v>-0.06736825512195301</v>
       </c>
       <c r="E63">
-        <v>-0.02839529665406468</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>-0.0588327191742236</v>
+      </c>
+      <c r="F63">
+        <v>-0.02689478655568585</v>
+      </c>
+      <c r="G63">
+        <v>0.008097866417853079</v>
+      </c>
+      <c r="H63">
+        <v>-0.07159468151269163</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.05508788611790185</v>
+        <v>0.01468039579440105</v>
       </c>
       <c r="C64">
-        <v>0.08663563998195237</v>
+        <v>-0.1052388459471807</v>
       </c>
       <c r="D64">
-        <v>-0.01236053565895971</v>
+        <v>-0.0046505971120128</v>
       </c>
       <c r="E64">
-        <v>-0.01019240745584129</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>-0.02300345262178744</v>
+      </c>
+      <c r="F64">
+        <v>-0.01139279848956879</v>
+      </c>
+      <c r="G64">
+        <v>0.04777057890117176</v>
+      </c>
+      <c r="H64">
+        <v>-0.06684733682434424</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.02532839778776427</v>
+        <v>0.01982548248326434</v>
       </c>
       <c r="C65">
-        <v>0.01550765311159764</v>
+        <v>-0.04456407788672025</v>
       </c>
       <c r="D65">
-        <v>-0.1070951099689375</v>
+        <v>-0.1127102769754253</v>
       </c>
       <c r="E65">
-        <v>-0.0191629086951657</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>-0.04462249531613496</v>
+      </c>
+      <c r="F65">
+        <v>0.006802321655916862</v>
+      </c>
+      <c r="G65">
+        <v>0.02952418937120757</v>
+      </c>
+      <c r="H65">
+        <v>-0.01556172726249089</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.02093228102694357</v>
+        <v>0.0003965671475132538</v>
       </c>
       <c r="C66">
-        <v>0.06795478266098476</v>
+        <v>-0.09731523192841063</v>
       </c>
       <c r="D66">
-        <v>-0.1203639670444702</v>
+        <v>-0.1177019396692652</v>
       </c>
       <c r="E66">
-        <v>0.003547451796359925</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>-0.04220642150188845</v>
+      </c>
+      <c r="F66">
+        <v>0.009595924023494013</v>
+      </c>
+      <c r="G66">
+        <v>-0.003200959482937487</v>
+      </c>
+      <c r="H66">
+        <v>-0.07138846115388757</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.02435031725120407</v>
+        <v>0.02129308238253208</v>
       </c>
       <c r="C67">
-        <v>0.02031718352364097</v>
+        <v>-0.03698184762907463</v>
       </c>
       <c r="D67">
-        <v>-0.04476694797338421</v>
+        <v>-0.041433519261641</v>
       </c>
       <c r="E67">
-        <v>0.0176697346914746</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>-0.01202906596423107</v>
+      </c>
+      <c r="F67">
+        <v>0.0267183385034688</v>
+      </c>
+      <c r="G67">
+        <v>-0.002220091581655463</v>
+      </c>
+      <c r="H67">
+        <v>-0.07142353926803799</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.2061981084077127</v>
+        <v>0.2760387775656747</v>
       </c>
       <c r="C68">
-        <v>-0.1538261369845306</v>
+        <v>0.06317668152139548</v>
       </c>
       <c r="D68">
-        <v>-0.03329112840014</v>
+        <v>-0.02914572601786951</v>
       </c>
       <c r="E68">
-        <v>-0.01627322144514718</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>0.004250494913110979</v>
+      </c>
+      <c r="F68">
+        <v>-0.0278984678944449</v>
+      </c>
+      <c r="G68">
+        <v>-0.07009579313182676</v>
+      </c>
+      <c r="H68">
+        <v>0.04637519034418186</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.05274349354189226</v>
+        <v>0.0144023584911107</v>
       </c>
       <c r="C69">
-        <v>0.1171267764958235</v>
+        <v>-0.1178562220969414</v>
       </c>
       <c r="D69">
-        <v>-0.07648711187441172</v>
+        <v>-0.0282488055649882</v>
       </c>
       <c r="E69">
-        <v>-0.02109693841020737</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>-0.00937800556635492</v>
+      </c>
+      <c r="F69">
+        <v>0.007819812941940466</v>
+      </c>
+      <c r="G69">
+        <v>0.0269118176636601</v>
+      </c>
+      <c r="H69">
+        <v>-0.04515183452796089</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,435 +2514,669 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.2166296242896617</v>
+        <v>0.277517442078171</v>
       </c>
       <c r="C71">
-        <v>-0.1775338713757798</v>
+        <v>0.07623046626883777</v>
       </c>
       <c r="D71">
-        <v>-0.01373549015085919</v>
+        <v>-0.01695463368007168</v>
       </c>
       <c r="E71">
-        <v>-0.01306468579213901</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>0.00253628671650093</v>
+      </c>
+      <c r="F71">
+        <v>-0.0214896141332318</v>
+      </c>
+      <c r="G71">
+        <v>-0.03923930661910264</v>
+      </c>
+      <c r="H71">
+        <v>-0.01778236624013657</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.10019827992414</v>
+        <v>0.05246972983300145</v>
       </c>
       <c r="C72">
-        <v>0.07825285297419224</v>
+        <v>-0.1282209922464827</v>
       </c>
       <c r="D72">
-        <v>-0.1162282151172041</v>
+        <v>-0.05653138470262671</v>
       </c>
       <c r="E72">
-        <v>0.02338537028095333</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>-0.06946445473774515</v>
+      </c>
+      <c r="F72">
+        <v>0.02597250042459757</v>
+      </c>
+      <c r="G72">
+        <v>0.04127279268788587</v>
+      </c>
+      <c r="H72">
+        <v>-0.04863495122571665</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.1728107541309482</v>
+        <v>0.1359928076145995</v>
       </c>
       <c r="C73">
-        <v>0.07255861116525195</v>
+        <v>-0.1526900242643806</v>
       </c>
       <c r="D73">
-        <v>-0.312287253705772</v>
+        <v>-0.09916112059081254</v>
       </c>
       <c r="E73">
-        <v>0.1641397368354085</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>-0.2843098729910239</v>
+      </c>
+      <c r="F73">
+        <v>0.3112391237313298</v>
+      </c>
+      <c r="G73">
+        <v>0.3894936762064807</v>
+      </c>
+      <c r="H73">
+        <v>0.1809530032747907</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.1048909687471486</v>
+        <v>0.04713501457825277</v>
       </c>
       <c r="C74">
-        <v>0.1156035937654958</v>
+        <v>-0.1442111590338881</v>
       </c>
       <c r="D74">
-        <v>0.02084555807638266</v>
+        <v>0.04229813930564483</v>
       </c>
       <c r="E74">
-        <v>-0.0374736401982134</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>0.01204595101102384</v>
+      </c>
+      <c r="F74">
+        <v>-0.03542296440357023</v>
+      </c>
+      <c r="G74">
+        <v>0.007890261726544305</v>
+      </c>
+      <c r="H74">
+        <v>0.01256250973779139</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.2287003194478704</v>
+        <v>0.1006046249175828</v>
       </c>
       <c r="C75">
-        <v>0.203205340635901</v>
+        <v>-0.2697165608536071</v>
       </c>
       <c r="D75">
-        <v>0.1057483698200085</v>
+        <v>0.1328603996233707</v>
       </c>
       <c r="E75">
-        <v>0.04934951395811443</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>0.09312022094490457</v>
+      </c>
+      <c r="F75">
+        <v>0.02715665770077096</v>
+      </c>
+      <c r="G75">
+        <v>-0.1008648837558377</v>
+      </c>
+      <c r="H75">
+        <v>-0.02697360378233978</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.1340834648757124</v>
+        <v>0.05565338695211972</v>
       </c>
       <c r="C76">
-        <v>0.1405201691304832</v>
+        <v>-0.1815985640130102</v>
       </c>
       <c r="D76">
-        <v>-0.005136731475632548</v>
+        <v>0.0436047224911254</v>
       </c>
       <c r="E76">
-        <v>-0.0009513157503045344</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>0.02072379522719811</v>
+      </c>
+      <c r="F76">
+        <v>-0.001808311137261103</v>
+      </c>
+      <c r="G76">
+        <v>-0.03278069337135846</v>
+      </c>
+      <c r="H76">
+        <v>-0.0362880938108691</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.01889196418007539</v>
+        <v>-0.0005763873456656857</v>
       </c>
       <c r="C77">
-        <v>0.06812479876371216</v>
+        <v>-0.1063634512320107</v>
       </c>
       <c r="D77">
-        <v>0.06637076476837332</v>
+        <v>-0.3252459689504573</v>
       </c>
       <c r="E77">
-        <v>-0.1359505163508742</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>0.841325823900916</v>
+      </c>
+      <c r="F77">
+        <v>0.2167258173201399</v>
+      </c>
+      <c r="G77">
+        <v>0.1977700957307046</v>
+      </c>
+      <c r="H77">
+        <v>0.147836703504547</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.02746927538764265</v>
+        <v>0.01466644522841126</v>
       </c>
       <c r="C78">
-        <v>0.07047237893210191</v>
+        <v>-0.09226377384564872</v>
       </c>
       <c r="D78">
-        <v>-0.1393624245755062</v>
+        <v>-0.1102883017574655</v>
       </c>
       <c r="E78">
-        <v>-0.05558885062477508</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>-0.06711877937516933</v>
+      </c>
+      <c r="F78">
+        <v>-0.04555670681233304</v>
+      </c>
+      <c r="G78">
+        <v>-0.03826226200658477</v>
+      </c>
+      <c r="H78">
+        <v>-0.03591763581873335</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>-0.09692429458238189</v>
+        <v>0.03383827322317887</v>
       </c>
       <c r="C79">
-        <v>0.1815814384915505</v>
+        <v>-0.1971721210159784</v>
       </c>
       <c r="D79">
-        <v>0.1916292122436855</v>
+        <v>0.08516720638524596</v>
       </c>
       <c r="E79">
-        <v>-0.8360570688635616</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>0.05693876974510877</v>
+      </c>
+      <c r="F79">
+        <v>-0.7772443370405873</v>
+      </c>
+      <c r="G79">
+        <v>0.3725946390635534</v>
+      </c>
+      <c r="H79">
+        <v>0.3281065521161117</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.003796612738270665</v>
+        <v>0.003915551786542413</v>
       </c>
       <c r="C80">
-        <v>0.04414357787388837</v>
+        <v>-0.04496733075735699</v>
       </c>
       <c r="D80">
-        <v>-0.04942075580551194</v>
+        <v>-0.03874140725233401</v>
       </c>
       <c r="E80">
-        <v>0.002978376672813922</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>-0.04577441276832113</v>
+      </c>
+      <c r="F80">
+        <v>-0.004156495391264493</v>
+      </c>
+      <c r="G80">
+        <v>-0.00739472161938716</v>
+      </c>
+      <c r="H80">
+        <v>-0.02476983072985412</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1163354350089692</v>
+        <v>0.03949442803661921</v>
       </c>
       <c r="C81">
-        <v>0.1365365925333779</v>
+        <v>-0.1664878539298094</v>
       </c>
       <c r="D81">
-        <v>0.08000403051570897</v>
+        <v>0.08191065486157237</v>
       </c>
       <c r="E81">
-        <v>-0.03732620385538884</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>0.04875736506430466</v>
+      </c>
+      <c r="F81">
+        <v>-0.06234212571959731</v>
+      </c>
+      <c r="G81">
+        <v>-0.04795369498015573</v>
+      </c>
+      <c r="H81">
+        <v>-0.07369456262337308</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>-0.2448246263138317</v>
+        <v>0.08330803307777306</v>
       </c>
       <c r="C82">
-        <v>0.3007692141608943</v>
+        <v>-0.3201441972304753</v>
       </c>
       <c r="D82">
-        <v>0.1897940200797163</v>
+        <v>0.2422922496673965</v>
       </c>
       <c r="E82">
-        <v>0.1837682521790392</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>0.06359626370516305</v>
+      </c>
+      <c r="F82">
+        <v>0.1111289080281728</v>
+      </c>
+      <c r="G82">
+        <v>-0.1000698929546229</v>
+      </c>
+      <c r="H82">
+        <v>-0.1093909214485406</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.01030843241840174</v>
+        <v>-0.01748017174159835</v>
       </c>
       <c r="C83">
-        <v>0.05032245354323554</v>
+        <v>-0.02637420112803712</v>
       </c>
       <c r="D83">
-        <v>0.009303560584905704</v>
+        <v>-0.02987109163509181</v>
       </c>
       <c r="E83">
-        <v>-0.04798817200117463</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>0.07685224220272996</v>
+      </c>
+      <c r="F83">
+        <v>-0.06347353823164721</v>
+      </c>
+      <c r="G83">
+        <v>-0.03430389606381044</v>
+      </c>
+      <c r="H83">
+        <v>-0.08124356664162559</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>-0.0008005986751205083</v>
+        <v>-0.002826263373677417</v>
       </c>
       <c r="C84">
-        <v>-0.0002574586043281465</v>
+        <v>-0.01718468446574706</v>
       </c>
       <c r="D84">
-        <v>-0.008750785570091499</v>
+        <v>-0.04315259283080843</v>
       </c>
       <c r="E84">
-        <v>0.0009924610738945518</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>0.000757496803130356</v>
+      </c>
+      <c r="F84">
+        <v>-0.03401349883711999</v>
+      </c>
+      <c r="G84">
+        <v>-0.04824179398832371</v>
+      </c>
+      <c r="H84">
+        <v>-0.03552945487149257</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.1372962287300606</v>
+        <v>0.05280421851540705</v>
       </c>
       <c r="C85">
-        <v>0.1408399223105164</v>
+        <v>-0.1832619002990621</v>
       </c>
       <c r="D85">
-        <v>0.04957601320818373</v>
+        <v>0.09945539025094872</v>
       </c>
       <c r="E85">
-        <v>-0.02290728151274476</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>0.0005047764844215389</v>
+      </c>
+      <c r="F85">
+        <v>-0.07176210337489848</v>
+      </c>
+      <c r="G85">
+        <v>-0.02236400337587788</v>
+      </c>
+      <c r="H85">
+        <v>0.006249097442371921</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.01446198673876202</v>
+        <v>0.01110302180566132</v>
       </c>
       <c r="C86">
-        <v>0.01413039438769058</v>
+        <v>-0.03614424845493724</v>
       </c>
       <c r="D86">
-        <v>-0.08904708826494621</v>
+        <v>-0.112201345961658</v>
       </c>
       <c r="E86">
-        <v>-0.05644693098122065</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>0.01187483727292182</v>
+      </c>
+      <c r="F86">
+        <v>-0.002861238422196984</v>
+      </c>
+      <c r="G86">
+        <v>0.02374157168524942</v>
+      </c>
+      <c r="H86">
+        <v>-0.03659008752878795</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.02000286201439302</v>
+        <v>0.01092008443424505</v>
       </c>
       <c r="C87">
-        <v>0.02684602990041988</v>
+        <v>-0.06055726905043823</v>
       </c>
       <c r="D87">
-        <v>-0.1237301526025012</v>
+        <v>-0.1395456048575545</v>
       </c>
       <c r="E87">
-        <v>-0.06115155664018872</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>-0.01604658930087372</v>
+      </c>
+      <c r="F87">
+        <v>-0.04116966942361729</v>
+      </c>
+      <c r="G87">
+        <v>-0.04565615168826145</v>
+      </c>
+      <c r="H87">
+        <v>-0.05670659923829657</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.04910513598264417</v>
+        <v>0.03045417884767875</v>
       </c>
       <c r="C88">
-        <v>0.04394562527898398</v>
+        <v>-0.06741430083139892</v>
       </c>
       <c r="D88">
-        <v>-0.01987773704955207</v>
+        <v>-0.0153901473822162</v>
       </c>
       <c r="E88">
-        <v>-0.0305126397560743</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>-0.02966241548962167</v>
+      </c>
+      <c r="F88">
+        <v>-0.02091572828457564</v>
+      </c>
+      <c r="G88">
+        <v>0.01576811075080167</v>
+      </c>
+      <c r="H88">
+        <v>-0.01351899066594432</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.324897485969465</v>
+        <v>0.4088577258292371</v>
       </c>
       <c r="C89">
-        <v>-0.3206097622343155</v>
+        <v>0.1456044143656179</v>
       </c>
       <c r="D89">
-        <v>4.849026535402776e-05</v>
+        <v>-0.03475086615952848</v>
       </c>
       <c r="E89">
-        <v>-0.09644371643634954</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>0.05326374501655139</v>
+      </c>
+      <c r="F89">
+        <v>-0.06670221048397995</v>
+      </c>
+      <c r="G89">
+        <v>-0.009766547921196137</v>
+      </c>
+      <c r="H89">
+        <v>-0.1201521351056068</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.2590195818389202</v>
+        <v>0.3220723633671629</v>
       </c>
       <c r="C90">
-        <v>-0.2340530144185172</v>
+        <v>0.09779008718021165</v>
       </c>
       <c r="D90">
-        <v>-0.03977591810885026</v>
+        <v>-0.03320511442904203</v>
       </c>
       <c r="E90">
-        <v>0.01228076730713831</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>0.007749005936127327</v>
+      </c>
+      <c r="F90">
+        <v>0.007891341176154134</v>
+      </c>
+      <c r="G90">
+        <v>-0.06523989894316985</v>
+      </c>
+      <c r="H90">
+        <v>0.005310426739474969</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.1517922157482662</v>
+        <v>0.06294521371301018</v>
       </c>
       <c r="C91">
-        <v>0.1873904412058732</v>
+        <v>-0.2073725424293087</v>
       </c>
       <c r="D91">
-        <v>0.1035110898925568</v>
+        <v>0.1081991768431832</v>
       </c>
       <c r="E91">
-        <v>-0.07175252429737601</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>0.05991804441716166</v>
+      </c>
+      <c r="F91">
+        <v>-0.0668856275568301</v>
+      </c>
+      <c r="G91">
+        <v>-0.00690135869712997</v>
+      </c>
+      <c r="H91">
+        <v>0.007582239781705073</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.2452648010655714</v>
+        <v>0.3412706245617803</v>
       </c>
       <c r="C92">
-        <v>-0.2577692500891279</v>
+        <v>0.134402471545339</v>
       </c>
       <c r="D92">
-        <v>0.0726773559348947</v>
+        <v>-0.001702303754717959</v>
       </c>
       <c r="E92">
-        <v>-0.0255511200209439</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>0.06385816404094015</v>
+      </c>
+      <c r="F92">
+        <v>-0.03009722376504692</v>
+      </c>
+      <c r="G92">
+        <v>-0.03227552838320492</v>
+      </c>
+      <c r="H92">
+        <v>-0.01558339863055344</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.2866542818604402</v>
+        <v>0.3368422849350598</v>
       </c>
       <c r="C93">
-        <v>-0.2459241434582714</v>
+        <v>0.1070667074294108</v>
       </c>
       <c r="D93">
-        <v>-0.0096330663545879</v>
+        <v>0.0189396336125392</v>
       </c>
       <c r="E93">
-        <v>-0.002931318531479648</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>-0.02599299041145117</v>
+      </c>
+      <c r="F93">
+        <v>-0.006532315999656872</v>
+      </c>
+      <c r="G93">
+        <v>0.01005071231556771</v>
+      </c>
+      <c r="H93">
+        <v>0.008325598539428205</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.2870848867210467</v>
+        <v>0.1197967530250601</v>
       </c>
       <c r="C94">
-        <v>0.2778081448811997</v>
+        <v>-0.3495812832524597</v>
       </c>
       <c r="D94">
-        <v>0.307855630642293</v>
+        <v>0.3557914974157301</v>
       </c>
       <c r="E94">
-        <v>0.2525260401437985</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>0.06157249325005722</v>
+      </c>
+      <c r="F94">
+        <v>0.1091120874378977</v>
+      </c>
+      <c r="G94">
+        <v>-0.3294612951272201</v>
+      </c>
+      <c r="H94">
+        <v>0.03128782645004516</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.0131575696391636</v>
+        <v>0.01475558574278829</v>
       </c>
       <c r="C95">
-        <v>0.04072624501312423</v>
+        <v>-0.06451344638442502</v>
       </c>
       <c r="D95">
-        <v>0.02961440300593881</v>
+        <v>-0.09032714698188046</v>
       </c>
       <c r="E95">
-        <v>-0.04004620946915503</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>0.1622147716341014</v>
+      </c>
+      <c r="F95">
+        <v>0.02352294058875836</v>
+      </c>
+      <c r="G95">
+        <v>0.08336732451620101</v>
+      </c>
+      <c r="H95">
+        <v>-0.3200446928805149</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,44 +3190,71 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>0.001289526769674091</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>-0.0008628495723376174</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>-0.0006570063037933539</v>
       </c>
       <c r="E97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>-0.003613290401408565</v>
+      </c>
+      <c r="F97">
+        <v>-0.0008221876248413282</v>
+      </c>
+      <c r="G97">
+        <v>-0.0009115148972516767</v>
+      </c>
+      <c r="H97">
+        <v>-0.004715375336096985</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.1475882825244607</v>
+        <v>0.115241354555449</v>
       </c>
       <c r="C98">
-        <v>0.09363026683743902</v>
+        <v>-0.1582598830699797</v>
       </c>
       <c r="D98">
-        <v>-0.193957741259208</v>
+        <v>-0.06321993441504756</v>
       </c>
       <c r="E98">
-        <v>0.1439315053779314</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>-0.2000370300843846</v>
+      </c>
+      <c r="F98">
+        <v>0.2478943852363705</v>
+      </c>
+      <c r="G98">
+        <v>0.2785077139015883</v>
+      </c>
+      <c r="H98">
+        <v>0.1918498789330279</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +3268,19 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,44 +3294,71 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.0004946506496033636</v>
+        <v>0.001530097294955718</v>
       </c>
       <c r="C101">
-        <v>0.01866817715619645</v>
+        <v>-0.03770782327009344</v>
       </c>
       <c r="D101">
-        <v>-0.09036327019669652</v>
+        <v>-0.1015242854251021</v>
       </c>
       <c r="E101">
-        <v>-0.03264476981806429</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>-0.05738364411627552</v>
+      </c>
+      <c r="F101">
+        <v>-0.04253588236381142</v>
+      </c>
+      <c r="G101">
+        <v>0.0137259848195138</v>
+      </c>
+      <c r="H101">
+        <v>-0.1463043905794353</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>-0.1044647727444377</v>
+        <v>0.02668794713817178</v>
       </c>
       <c r="C102">
-        <v>0.1602240769940537</v>
+        <v>-0.148417703656441</v>
       </c>
       <c r="D102">
-        <v>0.06443444029937433</v>
+        <v>0.1020773034831132</v>
       </c>
       <c r="E102">
-        <v>0.07079202815607545</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>0.03980024851857666</v>
+      </c>
+      <c r="F102">
+        <v>0.06777774712243488</v>
+      </c>
+      <c r="G102">
+        <v>-3.510047264552393e-05</v>
+      </c>
+      <c r="H102">
+        <v>-0.03928851249452509</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,10 +3372,19 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2460,6 +3396,15 @@
         <v>0</v>
       </c>
       <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
